--- a/05. Models/06.Benchmarking/Comparison.xlsx
+++ b/05. Models/06.Benchmarking/Comparison.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik_\Documents\GitHub\JointResearch\05. Models\06.Benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FA857-1DDC-4019-B007-8F66B3FD8713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF23870-1832-422D-A307-9BC33E4090BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CostSummary" sheetId="1" r:id="rId1"/>
     <sheet name="NetworkInvestment" sheetId="3" r:id="rId2"/>
     <sheet name="TechnologyEnergy" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -443,13 +454,16 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -489,10 +503,10 @@
         <v>163.846037385242</v>
       </c>
       <c r="E2">
-        <v>113.799113276459</v>
+        <v>165.44078306194399</v>
       </c>
       <c r="F2">
-        <v>117.32017595498399</v>
+        <v>167.84468917364501</v>
       </c>
       <c r="G2">
         <v>112.967603720684</v>
@@ -535,10 +549,10 @@
         <v>0.75</v>
       </c>
       <c r="E4">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
         <v>2.25</v>
@@ -558,10 +572,10 @@
         <v>163.096037385242</v>
       </c>
       <c r="E5">
-        <v>68.359953728562601</v>
+        <v>164.69078306194399</v>
       </c>
       <c r="F5">
-        <v>70.962161938873805</v>
+        <v>167.09468917364501</v>
       </c>
       <c r="G5">
         <v>67.884157415672703</v>
@@ -604,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43.189159547897198</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>44.108014016110403</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>42.833446305011499</v>
@@ -645,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6C3B42-55E2-47F4-A88D-E8A302FEA5BB}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -950,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B39EDB-B313-4539-AE30-67637C076A13}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,10 +1033,10 @@
         <v>1435.9145616200642</v>
       </c>
       <c r="E3">
-        <v>1624.8001180468784</v>
+        <v>1448.1577267734979</v>
       </c>
       <c r="F3">
-        <v>1615.4679582718468</v>
+        <v>1421.090404087309</v>
       </c>
       <c r="G3">
         <v>1608.3253519928182</v>
@@ -1065,10 +1079,10 @@
         <v>178.04343275228095</v>
       </c>
       <c r="E5">
-        <v>79.010382052969646</v>
+        <v>180.90611206697591</v>
       </c>
       <c r="F5">
-        <v>98.529573561317349</v>
+        <v>213.63653568495121</v>
       </c>
       <c r="G5">
         <v>79.30519115264822</v>

--- a/05. Models/06.Benchmarking/Comparison.xlsx
+++ b/05. Models/06.Benchmarking/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik_\Documents\GitHub\JointResearch\05. Models\06.Benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF23870-1832-422D-A307-9BC33E4090BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27776D-973C-427E-8AB6-33B2DE956055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CostSummary" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>167.84468917364501</v>
       </c>
       <c r="G2">
-        <v>112.967603720684</v>
+        <v>163.77134452519601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>0.75</v>
       </c>
       <c r="G4">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>167.09468917364501</v>
       </c>
       <c r="G5">
-        <v>67.884157415672703</v>
+        <v>163.02134452519701</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.833446305011499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B39EDB-B313-4539-AE30-67637C076A13}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
         <v>1421.090404087309</v>
       </c>
       <c r="G3">
-        <v>1608.3253519928182</v>
+        <v>1435.4777708574732</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>213.63653568495121</v>
       </c>
       <c r="G5">
-        <v>79.30519115264822</v>
+        <v>177.82406270168687</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
